--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2414.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2414.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.041306497674208</v>
+        <v>1.266970157623291</v>
       </c>
       <c r="B1">
-        <v>2.122779096433254</v>
+        <v>1.748167037963867</v>
       </c>
       <c r="C1">
-        <v>9.475031867742375</v>
+        <v>4.080344676971436</v>
       </c>
       <c r="D1">
-        <v>1.921531828017861</v>
+        <v>3.331408500671387</v>
       </c>
       <c r="E1">
-        <v>0.9983160642549384</v>
+        <v>1.150517821311951</v>
       </c>
     </row>
   </sheetData>
